--- a/HARM_DH_4_V2.xlsx
+++ b/HARM_DH_4_V2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Robotica_UMA\SKOVDE\TFG\TechnicalPart\ContentFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drubi\Desktop\Trabajo_Suecia\HARM\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C1A23D-987B-4ADD-8726-27840A2A198A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E30E786-D38B-4B92-9791-B8A968E20A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="true" xWindow="345" yWindow="3405" windowWidth="21600" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dan Högberg</author>
   </authors>
   <commentList>
-    <comment ref="O10" authorId="0">
+    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W10" authorId="0">
+    <comment ref="W10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0">
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F24" authorId="0">
+    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F28" authorId="0">
+    <comment ref="F28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F29" authorId="0">
+    <comment ref="F29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -213,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F30" authorId="0">
+    <comment ref="F30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F33" authorId="0">
+    <comment ref="F33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F34" authorId="0">
+    <comment ref="F34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -290,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F35" authorId="0">
+    <comment ref="F35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -315,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F38" authorId="0">
+    <comment ref="F38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="0">
+    <comment ref="F39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -367,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F40" authorId="0">
+    <comment ref="F40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -392,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="0">
+    <comment ref="F43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -419,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F44" authorId="0">
+    <comment ref="F44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F45" authorId="0">
+    <comment ref="F45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -469,7 +469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F52" authorId="0">
+    <comment ref="F52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -493,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F53" authorId="0">
+    <comment ref="F53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -517,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F54" authorId="0">
+    <comment ref="F54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -541,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F55" authorId="0">
+    <comment ref="F55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -565,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F57" authorId="0">
+    <comment ref="F57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -590,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F62" authorId="0">
+    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -615,7 +615,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F63" authorId="0">
+    <comment ref="F63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -639,7 +639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F64" authorId="0">
+    <comment ref="F64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -663,7 +663,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F65" authorId="0">
+    <comment ref="F65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -688,7 +688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F71" authorId="0">
+    <comment ref="F71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -712,7 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F72" authorId="0">
+    <comment ref="F72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -736,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F73" authorId="0">
+    <comment ref="F73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -760,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F74" authorId="0">
+    <comment ref="F74" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -784,7 +784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F76" authorId="0">
+    <comment ref="F76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -809,7 +809,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F81" authorId="0">
+    <comment ref="F81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -834,7 +834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F82" authorId="0">
+    <comment ref="F82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -858,7 +858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F83" authorId="0">
+    <comment ref="F83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -882,7 +882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F84" authorId="0">
+    <comment ref="F84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -907,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E89" authorId="0">
+    <comment ref="E89" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -931,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F97" authorId="0">
+    <comment ref="F97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -960,7 +960,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="156">
   <si>
     <t>Task duration score</t>
   </si>
@@ -1586,873 +1586,6 @@
   </si>
   <si>
     <t>Total HARM risk score (Right Arm)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>1 - 10</t>
-  </si>
-  <si>
-    <t>Peak Force</t>
-  </si>
-  <si>
-    <t>10 - 60</t>
-  </si>
-  <si>
-    <t>1 - 10</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Task 1 - Factory</t>
-  </si>
-  <si>
-    <t>Ergonomics</t>
-  </si>
-  <si>
-    <t>Ergonomist 1</t>
-  </si>
-  <si>
-    <t>1 - 10</t>
-  </si>
-  <si>
-    <t>Peak Force</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>0 - 4</t>
-  </si>
-  <si>
-    <t>4 - 8</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Task 1 -factory</t>
-  </si>
-  <si>
-    <t>ergonomics</t>
-  </si>
-  <si>
-    <t>ergonomist</t>
-  </si>
-  <si>
-    <t>1 - 10</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>0 - 4</t>
-  </si>
-  <si>
-    <t>4 - 8</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>task 1 -factory</t>
-  </si>
-  <si>
-    <t>ergonomics</t>
-  </si>
-  <si>
-    <t>ergonomist 1</t>
-  </si>
-  <si>
-    <t>1 - 10</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>0 - 4</t>
-  </si>
-  <si>
-    <t>4 - 8</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Factory- Task 1</t>
-  </si>
-  <si>
-    <t>Ergonomics</t>
-  </si>
-  <si>
-    <t>Ergonomist 1</t>
-  </si>
-  <si>
-    <t>1 - 10</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>0 - 4</t>
-  </si>
-  <si>
-    <t>4 - 8</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Exhibition at ASSAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergonomics - Automation </t>
-  </si>
-  <si>
-    <t>David &amp; Cristina</t>
-  </si>
-  <si>
-    <t>1 - 10</t>
-  </si>
-  <si>
-    <t>10 - 60</t>
-  </si>
-  <si>
-    <t>Peak Force</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>0 - 4</t>
-  </si>
-  <si>
-    <t>4 - 8</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>Exhibition at ASSAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergonomics - Automation </t>
-  </si>
-  <si>
-    <t>David &amp; Cristina</t>
-  </si>
-  <si>
-    <t>1 - 10</t>
-  </si>
-  <si>
-    <t>10 - 60</t>
-  </si>
-  <si>
-    <t>Peak Force</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>Exhibition at ASSAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergonomics - Automation </t>
-  </si>
-  <si>
-    <t>David &amp; Cristina</t>
-  </si>
-  <si>
-    <t>1 - 10</t>
-  </si>
-  <si>
-    <t>10 - 60</t>
-  </si>
-  <si>
-    <t>Peak Force</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>Exhibition at ASSAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergonomics - Automation </t>
-  </si>
-  <si>
-    <t>David &amp; Cristina</t>
-  </si>
-  <si>
-    <t>1 - 10</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Peak Force</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>1 - 10</t>
-  </si>
-  <si>
-    <t>10 - 60</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>0 - 4</t>
-  </si>
-  <si>
-    <t>4 - 8</t>
-  </si>
-  <si>
-    <t>0 - 4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Hola, presentando a mis padres el tfg</t>
-  </si>
-  <si>
-    <t>casa</t>
-  </si>
-  <si>
-    <t>davi</t>
-  </si>
-  <si>
-    <t>1 - 10</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>4 - 8</t>
-  </si>
-  <si>
-    <t>0 - 4</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>No vibrating tool used</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -2512,7 +1645,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.34998626667074"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2588,13 +1721,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778863"/>
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778863"/>
+        <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2618,7 +1751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407453"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2630,12 +1763,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778863"/>
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="786">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -3482,1919 +2615,483 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="909">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFill="true"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="19" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="2" applyFont="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="2" applyFont="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="2" applyFont="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="32" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="23" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyAlignment="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFill="true" applyAlignment="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="47" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="true" applyAlignment="true" applyProtection="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="49" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="49" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="49" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="49" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="49" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="54" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="54" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="54" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="54" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="54" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="54" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="48" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="47" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="47" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="47" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="47" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="55" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="49" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="35" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="16" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="58" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="60" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyProtection="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="58" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="61" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="27" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="2" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="true" applyFont="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="56" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="57" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="64" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="65" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="66" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="65" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="62" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="63" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" shrinkToFit="true"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="226" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="227" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="228" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="229" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="230" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="231" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="232" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="233" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="234" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="235" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="236" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="237" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="238" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="239" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="240" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="241" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="242" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="243" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="244" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="245" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="246" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="247" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="248" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="249" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="250" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="251" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="253" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="254" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="255" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="259" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="260" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="261" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="262" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="263" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="264" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="265" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="266" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="267" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="268" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="269" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="270" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="271" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="272" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="273" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="274" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="275" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="276" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="277" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="278" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="279" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="280" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="281" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="282" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="283" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="284" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="285" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="286" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="287" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="288" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="289" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="290" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="291" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="292" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="293" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="294" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="295" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="296" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="297" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="298" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="299" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="300" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="301" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="302" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="303" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="304" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="305" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="306" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="307" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="308" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="309" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="310" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="311" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="312" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="313" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="314" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="315" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="316" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="317" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="318" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="319" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="320" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="321" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="322" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="323" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="324" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="325" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="326" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="327" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="328" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="329" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="330" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="331" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="332" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="333" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="334" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="335" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="336" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="337" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="338" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="339" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="340" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="341" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="342" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="343" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="344" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="345" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="346" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="347" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="348" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="349" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="350" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="351" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="352" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="353" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="354" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="355" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="356" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="357" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="358" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="359" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="360" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="361" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="362" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="363" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="364" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="365" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="366" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="367" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="368" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="369" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="370" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="371" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="372" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="373" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="374" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="375" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="376" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="377" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="378" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="379" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="380" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="381" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="382" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="383" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="384" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="385" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="386" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="387" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="388" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="389" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="390" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="391" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="392" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="393" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="394" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="395" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="396" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="397" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="398" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="399" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="400" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="401" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="402" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="403" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="404" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="405" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="406" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="407" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="408" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="409" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="410" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="411" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="412" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="413" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="414" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="415" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="416" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="417" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="418" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="419" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="420" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="421" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="422" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="423" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="424" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="425" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="426" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="427" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="428" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="429" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="430" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="431" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="432" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="433" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="434" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="435" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="436" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="437" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="438" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="439" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="440" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="441" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="442" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="443" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="444" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="445" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="446" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="447" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="448" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="449" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="450" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="451" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="452" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="453" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="454" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="455" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="456" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="457" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="458" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="459" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="460" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="461" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="462" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="463" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="464" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="465" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="466" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="467" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="468" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="469" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="470" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="471" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="472" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="473" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="474" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="475" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="476" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="477" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="478" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="479" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="480" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="481" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="482" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="483" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="484" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="485" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="486" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="487" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="488" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="489" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="490" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="491" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="492" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="493" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="494" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="495" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="496" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="497" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="498" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="499" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="500" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="501" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="502" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="503" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="504" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="505" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="506" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="507" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="508" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="509" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="510" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="511" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="512" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="513" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="514" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="515" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="516" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="517" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="518" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="519" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="520" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="521" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="522" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="523" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="524" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="525" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="526" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="527" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="528" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="529" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="530" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="531" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="532" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="533" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="534" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="535" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="536" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="537" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="538" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="539" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="540" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="541" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="542" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="543" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="544" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="545" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="546" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="547" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="548" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="549" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="550" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="551" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="552" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="553" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="554" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="555" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="556" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="557" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="558" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="559" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="560" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="561" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="562" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="563" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="564" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="565" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="566" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="567" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="568" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="569" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="570" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="571" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="572" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="573" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="574" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="575" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="576" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="577" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="578" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="579" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="580" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="581" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="582" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="583" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="584" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="585" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="586" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="587" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="588" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="589" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="590" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="591" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="592" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="593" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="594" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="595" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="596" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="597" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="598" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="599" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="600" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="601" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="602" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="603" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="604" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="605" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="606" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="607" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="608" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="609" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="610" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="611" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="612" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="613" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="614" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="615" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="616" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="617" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="618" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="619" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="620" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="621" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="622" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="623" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="624" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="625" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="626" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="627" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="628" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="629" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="630" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="631" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="632" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="633" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="634" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="635" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="636" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="637" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="638" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="639" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="640" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="641" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="642" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="643" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="644" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="645" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="646" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="647" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="648" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="649" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="650" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="651" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="652" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="653" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="654" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="655" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="656" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="657" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="658" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="659" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="660" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="661" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="662" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="663" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="664" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="665" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="666" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="667" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="668" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="669" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="670" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="671" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="672" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="673" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="674" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="675" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="676" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="677" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="678" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="679" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="680" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="681" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="682" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="683" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="684" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="685" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="686" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="687" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="688" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="689" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="690" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="691" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="692" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="693" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="694" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="695" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="696" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="697" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="698" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="699" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="700" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="701" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="702" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="703" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="704" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="705" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="706" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="707" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="708" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="709" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="710" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="711" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="712" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="713" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="714" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="715" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="716" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="717" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="718" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="719" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="720" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="721" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="722" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="723" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="724" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="725" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="726" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="727" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="728" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="729" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="730" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="731" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="732" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="733" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="734" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="735" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="736" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="737" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="738" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="739" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="740" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="741" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="742" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="743" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="744" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="745" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="746" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="747" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="748" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="749" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="750" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="751" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="752" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="753" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="754" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="755" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="756" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="757" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="758" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="759" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="760" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="761" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="762" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="763" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="764" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="765" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="766" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="767" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="768" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="769" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="770" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="771" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="772" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="773" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="774" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="775" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="776" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="777" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="778" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="779" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="780" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="781" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="782" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="783" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="784" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="785" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Entrada" xfId="1" builtinId="20"/>
@@ -5459,7 +3156,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -5477,17 +3174,17 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{204D35D3-D406-4B62-9545-FC955C261EDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5521,17 +3218,17 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA28BAC-1B36-4453-891F-BEE913F98D18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5565,17 +3262,17 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296E29EB-4183-4E3F-B0BD-B3B3EF02A501}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5894,30 +3591,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D5A744-93A6-4AE8-83A2-675B1B554012}">
   <dimension ref="B1:AT1048576"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="F5" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="0.140625" customWidth="true"/>
-    <col min="6" max="6" width="256.28515625" style="71" customWidth="true"/>
-    <col min="7" max="7" width="7.28515625" customWidth="true"/>
-    <col min="8" max="8" width="20.5703125" style="1" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="15.42578125" style="3" customWidth="true"/>
-    <col min="10" max="10" width="9.7109375" style="1" bestFit="true" customWidth="true"/>
-    <col min="15" max="15" width="21.85546875" bestFit="true" customWidth="true"/>
-    <col min="23" max="23" width="20.85546875" customWidth="true"/>
-    <col min="39" max="39" width="10.7109375" customWidth="true"/>
+    <col min="2" max="2" width="0.140625" customWidth="1"/>
+    <col min="6" max="6" width="185.42578125" style="71" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.85546875" customWidth="1"/>
+    <col min="39" max="39" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:28" ht="31.5" x14ac:dyDescent="0.5">
       <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
       <c r="E2" s="4" t="s">
         <v>148</v>
       </c>
@@ -5925,7 +3622,7 @@
       <c r="G2" s="4"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="E3" s="4" t="s">
         <v>147</v>
       </c>
@@ -5933,14 +3630,14 @@
       <c r="G3" s="4"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="E4" s="4" t="s">
         <v>149</v>
       </c>
       <c r="H4" s="4"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
@@ -5950,14 +3647,14 @@
       <c r="G5" s="4"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" ht="210.75" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:28" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="36" t="s">
         <v>120</v>
       </c>
       <c r="F6"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="D7" s="125" t="s">
         <v>124</v>
@@ -5988,7 +3685,7 @@
       <c r="AA7" s="26"/>
       <c r="AB7" s="26"/>
     </row>
-    <row r="8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" s="83"/>
       <c r="E8" s="101"/>
@@ -6015,7 +3712,7 @@
       <c r="AA8" s="26"/>
       <c r="AB8" s="26"/>
     </row>
-    <row r="9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>0</v>
       </c>
@@ -6048,14 +3745,14 @@
       <c r="AA9" s="26"/>
       <c r="AB9" s="26"/>
     </row>
-    <row r="10" ht="39" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:28" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="D10" s="83"/>
       <c r="E10" s="101"/>
       <c r="F10" s="70"/>
       <c r="G10" s="133"/>
       <c r="H10" s="93"/>
-      <c r="I10" s="777"/>
+      <c r="I10" s="175"/>
       <c r="J10" s="93"/>
       <c r="K10" s="89"/>
       <c r="M10" s="26"/>
@@ -6065,7 +3762,7 @@
       </c>
       <c r="P10" s="35">
         <f>J21*(J47+J78+J85+J94+J102)</f>
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="28"/>
       <c r="R10" s="26"/>
@@ -6078,14 +3775,14 @@
       </c>
       <c r="X10" s="35">
         <f>J21*(J47+J59+J66+J94+J102)</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="28"/>
       <c r="Z10" s="26"/>
       <c r="AA10" s="26"/>
       <c r="AB10" s="26"/>
     </row>
-    <row r="11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="D11" s="83"/>
       <c r="E11" s="101"/>
@@ -6112,7 +3809,7 @@
       <c r="AA11" s="26"/>
       <c r="AB11" s="26"/>
     </row>
-    <row r="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" s="83"/>
       <c r="E12" s="101"/>
@@ -6143,7 +3840,7 @@
       <c r="AA12" s="26"/>
       <c r="AB12" s="26"/>
     </row>
-    <row r="13" ht="37.5" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="D13" s="83"/>
       <c r="E13" s="101"/>
@@ -6170,7 +3867,7 @@
       <c r="AA13" s="26"/>
       <c r="AB13" s="26"/>
     </row>
-    <row r="14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="D14" s="83"/>
       <c r="E14" s="101"/>
@@ -6199,7 +3896,7 @@
       <c r="AA14" s="26"/>
       <c r="AB14" s="26"/>
     </row>
-    <row r="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" s="83"/>
       <c r="E15" s="131" t="s">
@@ -6228,7 +3925,7 @@
       <c r="AA15" s="26"/>
       <c r="AB15" s="26"/>
     </row>
-    <row r="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="D16" s="83"/>
       <c r="E16" s="101"/>
@@ -6259,7 +3956,7 @@
       <c r="AA16" s="26"/>
       <c r="AB16" s="26"/>
     </row>
-    <row r="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="D17" s="83"/>
       <c r="E17" s="136" t="s">
@@ -6296,7 +3993,7 @@
       <c r="AA17" s="26"/>
       <c r="AB17" s="26"/>
     </row>
-    <row r="18" ht="17.25" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:46" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37"/>
       <c r="D18" s="83"/>
       <c r="E18" s="43" t="s">
@@ -6305,16 +4002,14 @@
       <c r="F18" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="163" t="s">
-        <v>352</v>
-      </c>
+      <c r="G18" s="163"/>
       <c r="H18" s="164"/>
       <c r="I18" s="45" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="46">
         <f>G18-1</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K18" s="89"/>
       <c r="M18" s="26"/>
@@ -6340,7 +4035,7 @@
       <c r="AA18" s="26"/>
       <c r="AB18" s="26"/>
     </row>
-    <row r="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="D19" s="83"/>
       <c r="E19" s="47" t="s">
@@ -6349,16 +4044,14 @@
       <c r="F19" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="165" t="s">
-        <v>353</v>
-      </c>
+      <c r="G19" s="165"/>
       <c r="H19" s="166"/>
       <c r="I19" s="138" t="s">
         <v>3</v>
       </c>
       <c r="J19" s="48">
         <f>IF(G19&gt;=3,0,-1)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K19" s="89"/>
       <c r="M19" s="26"/>
@@ -6384,7 +4077,7 @@
       <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
     </row>
-    <row r="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="D20" s="83"/>
       <c r="E20" s="47" t="s">
@@ -6393,9 +4086,7 @@
       <c r="F20" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="167" t="s">
-        <v>444</v>
-      </c>
+      <c r="G20" s="167"/>
       <c r="H20" s="168"/>
       <c r="I20" s="138"/>
       <c r="J20" s="48">
@@ -6420,7 +4111,7 @@
       <c r="AA20" s="26"/>
       <c r="AB20" s="26"/>
     </row>
-    <row r="21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:46" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="D21" s="83"/>
       <c r="E21" s="157" t="s">
@@ -6436,7 +4127,7 @@
       </c>
       <c r="J21" s="158">
         <f>IF(SUM(J18:J20)&gt;1,SUM(J18:J20),1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21" s="89"/>
       <c r="M21" s="26"/>
@@ -6458,7 +4149,7 @@
       <c r="AA21" s="26"/>
       <c r="AB21" s="26"/>
     </row>
-    <row r="22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="D22" s="83"/>
       <c r="E22" s="139"/>
@@ -6485,7 +4176,7 @@
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
     </row>
-    <row r="23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="D23" s="83"/>
       <c r="E23" s="136" t="s">
@@ -6499,7 +4190,7 @@
       <c r="K23" s="89"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="D24" s="83"/>
       <c r="E24" s="49" t="s">
@@ -6547,7 +4238,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="D25" s="83"/>
       <c r="E25" s="139"/>
@@ -6589,7 +4280,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="D26" s="83"/>
       <c r="E26" s="136" t="s">
@@ -6627,7 +4318,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="D27" s="83"/>
       <c r="E27" s="52" t="s">
@@ -6647,7 +4338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="D28" s="83"/>
       <c r="E28" s="47" t="s">
@@ -6656,12 +4347,10 @@
       <c r="F28" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="173" t="s">
-        <v>415</v>
-      </c>
+      <c r="G28" s="173"/>
       <c r="H28" s="141" t="str">
         <f>IF(G28="1 - 10","1-10",IF(G28="10 - 60","10-60",IF(G28="Peak Force","Peak Force","0")))</f>
-        <v>1-10</v>
+        <v>0</v>
       </c>
       <c r="I28" s="138" t="s">
         <v>14</v>
@@ -6676,7 +4365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="D29" s="83"/>
       <c r="E29" s="47" t="s">
@@ -6685,9 +4374,7 @@
       <c r="F29" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="174">
-        <v>0</v>
-      </c>
+      <c r="G29" s="174"/>
       <c r="H29" s="141" t="str">
         <f>IF(G29&lt;4,"&lt;4",IF(G29&lt;30,"4-30","&gt;30"))</f>
         <v>&lt;4</v>
@@ -6695,9 +4382,9 @@
       <c r="I29" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="J29" s="48">
+      <c r="J29" s="48" t="e">
         <f>INDEX($AM$53:$AO$55,MATCH(H28,$AL$53:$AL$55,0),MATCH(H29,$AM$52:$AO$52,0))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="K29" s="89"/>
       <c r="AL29">
@@ -6707,7 +4394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="D30" s="83"/>
       <c r="E30" s="47" t="s">
@@ -6716,26 +4403,24 @@
       <c r="F30" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="174">
-        <v>0</v>
-      </c>
+      <c r="G30" s="174"/>
       <c r="H30" s="141" t="str">
         <f>IF(G30&lt;4,"&lt;4",IF(G30&lt;30,"4-30","&gt;30"))</f>
-        <v>4-30</v>
+        <v>&lt;4</v>
       </c>
       <c r="I30" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="J30" s="48">
+      <c r="J30" s="48" t="e">
         <f>INDEX($AP$53:$AR$55,MATCH(H28,$AL$53:$AL$55,0),MATCH(H30,$AP$52:$AR$52,0))</f>
-        <v>2.5</v>
+        <v>#N/A</v>
       </c>
       <c r="K30" s="89"/>
       <c r="AL30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="D31" s="83"/>
       <c r="E31" s="57"/>
@@ -6749,7 +4434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="D32" s="83"/>
       <c r="E32" s="52" t="s">
@@ -6765,7 +4450,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="33" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="D33" s="83"/>
       <c r="E33" s="47" t="s">
@@ -6774,12 +4459,10 @@
       <c r="F33" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="173" t="s">
-        <v>416</v>
-      </c>
+      <c r="G33" s="173"/>
       <c r="H33" s="141" t="str">
         <f>IF(G33="1 - 10","1-10",IF(G33="10 - 60","10-60",IF(G33="Peak Force","Peak Force","0")))</f>
-        <v>Peak Force</v>
+        <v>0</v>
       </c>
       <c r="I33" s="138" t="s">
         <v>14</v>
@@ -6790,7 +4473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="D34" s="83"/>
       <c r="E34" s="47" t="s">
@@ -6799,9 +4482,7 @@
       <c r="F34" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="174">
-        <v>0</v>
-      </c>
+      <c r="G34" s="174"/>
       <c r="H34" s="141" t="str">
         <f>IF(G34&lt;4,"&lt;4",IF(G34&lt;30,"4-30","&gt;30"))</f>
         <v>&lt;4</v>
@@ -6809,16 +4490,16 @@
       <c r="I34" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="J34" s="48" t="str">
+      <c r="J34" s="48" t="e">
         <f>INDEX($AM$53:$AO$55,MATCH(H33,$AL$53:$AL$55,0),MATCH(H34,$AM$52:$AO$52,0))</f>
-        <v>n/a</v>
+        <v>#N/A</v>
       </c>
       <c r="K34" s="89"/>
       <c r="AL34">
         <v>6.5</v>
       </c>
     </row>
-    <row r="35" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="D35" s="83"/>
       <c r="E35" s="47" t="s">
@@ -6827,9 +4508,7 @@
       <c r="F35" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="174">
-        <v>0</v>
-      </c>
+      <c r="G35" s="174"/>
       <c r="H35" s="141" t="str">
         <f>IF(G35&lt;4,"&lt;4",IF(G35&lt;30,"4-30","&gt;30"))</f>
         <v>&lt;4</v>
@@ -6837,16 +4516,16 @@
       <c r="I35" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="J35" s="48">
+      <c r="J35" s="48" t="e">
         <f>INDEX($AP$53:$AR$55,MATCH(H33,$AL$53:$AL$55,0),MATCH(H35,$AP$52:$AR$52,0))</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="K35" s="89"/>
       <c r="AL35">
         <v>7</v>
       </c>
     </row>
-    <row r="36" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="D36" s="83"/>
       <c r="E36" s="57"/>
@@ -6860,7 +4539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="D37" s="83"/>
       <c r="E37" s="52" t="s">
@@ -6876,7 +4555,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="38" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="D38" s="83"/>
       <c r="E38" s="47" t="s">
@@ -6885,12 +4564,10 @@
       <c r="F38" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="173" t="s">
-        <v>417</v>
-      </c>
+      <c r="G38" s="173"/>
       <c r="H38" s="141" t="str">
         <f>IF(G38="1 - 10","1-10",IF(G38="10 - 60","10-60",IF(G38="Peak Force","Peak Force","0")))</f>
-        <v>10-60</v>
+        <v>0</v>
       </c>
       <c r="I38" s="138" t="s">
         <v>14</v>
@@ -6901,7 +4578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="D39" s="83"/>
       <c r="E39" s="47" t="s">
@@ -6910,9 +4587,7 @@
       <c r="F39" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="174">
-        <v>0</v>
-      </c>
+      <c r="G39" s="174"/>
       <c r="H39" s="141" t="str">
         <f>IF(G39&lt;4,"&lt;4",IF(G39&lt;30,"4-30","&gt;30"))</f>
         <v>&lt;4</v>
@@ -6920,16 +4595,16 @@
       <c r="I39" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="J39" s="48">
+      <c r="J39" s="48" t="e">
         <f>INDEX($AM$53:$AO$55,MATCH(H38,$AL$53:$AL$55,0),MATCH(H39,$AM$52:$AO$52,0))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="K39" s="89"/>
       <c r="AL39">
         <v>9.5</v>
       </c>
     </row>
-    <row r="40" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="D40" s="83"/>
       <c r="E40" s="47" t="s">
@@ -6938,9 +4613,7 @@
       <c r="F40" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="174">
-        <v>0</v>
-      </c>
+      <c r="G40" s="174"/>
       <c r="H40" s="141" t="str">
         <f>IF(G40&lt;4,"&lt;4",IF(G40&lt;30,"4-30","&gt;30"))</f>
         <v>&lt;4</v>
@@ -6948,16 +4621,16 @@
       <c r="I40" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="48">
+      <c r="J40" s="48" t="e">
         <f>INDEX($AP$53:$AR$55,MATCH(H38,$AL$53:$AL$55,0),MATCH(H40,$AP$52:$AR$52,0))</f>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="K40" s="89"/>
       <c r="AL40">
         <v>10</v>
       </c>
     </row>
-    <row r="41" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="D41" s="83"/>
       <c r="E41" s="57"/>
@@ -6968,7 +4641,7 @@
       <c r="J41" s="61"/>
       <c r="K41" s="89"/>
     </row>
-    <row r="42" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="D42" s="83"/>
       <c r="E42" s="62" t="s">
@@ -6981,7 +4654,7 @@
       <c r="J42" s="65"/>
       <c r="K42" s="89"/>
     </row>
-    <row r="43" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="D43" s="83"/>
       <c r="E43" s="47" t="s">
@@ -6990,12 +4663,10 @@
       <c r="F43" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="173" t="s">
-        <v>418</v>
-      </c>
+      <c r="G43" s="173"/>
       <c r="H43" s="141" t="str">
         <f>IF(G43="1 - 10","1-10",IF(G43="10 - 60","10-60",IF(G43="Peak Force","Peak Force","0")))</f>
-        <v>1-10</v>
+        <v>0</v>
       </c>
       <c r="I43" s="138" t="s">
         <v>14</v>
@@ -7003,7 +4674,7 @@
       <c r="J43" s="56"/>
       <c r="K43" s="89"/>
     </row>
-    <row r="44" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="D44" s="83"/>
       <c r="E44" s="47" t="s">
@@ -7012,9 +4683,7 @@
       <c r="F44" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="174">
-        <v>0</v>
-      </c>
+      <c r="G44" s="174"/>
       <c r="H44" s="141" t="str">
         <f>IF(G44&lt;4,"&lt;4",IF(G44&lt;30,"4-30","&gt;30"))</f>
         <v>&lt;4</v>
@@ -7022,13 +4691,13 @@
       <c r="I44" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="J44" s="48">
+      <c r="J44" s="48" t="e">
         <f>INDEX($AM$53:$AO$55,MATCH(H43,$AL$53:$AL$55,0),MATCH(H44,$AM$52:$AO$52,0))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="K44" s="89"/>
     </row>
-    <row r="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="D45" s="83"/>
       <c r="E45" s="47" t="s">
@@ -7037,9 +4706,7 @@
       <c r="F45" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="174">
-        <v>0</v>
-      </c>
+      <c r="G45" s="174"/>
       <c r="H45" s="141" t="str">
         <f>IF(G45&lt;4,"&lt;4",IF(G45&lt;30,"4-30","&gt;30"))</f>
         <v>&lt;4</v>
@@ -7047,13 +4714,13 @@
       <c r="I45" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="J45" s="48">
+      <c r="J45" s="48" t="e">
         <f>INDEX($AP$53:$AR$55,MATCH(H43,$AL$53:$AL$55,0),MATCH(H45,$AP$52:$AR$52,0))</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="K45" s="89"/>
     </row>
-    <row r="46" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="D46" s="83"/>
       <c r="E46" s="66"/>
@@ -7064,7 +4731,7 @@
       <c r="J46" s="61"/>
       <c r="K46" s="89"/>
     </row>
-    <row r="47" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="D47" s="83"/>
       <c r="E47" s="147" t="s">
@@ -7080,7 +4747,7 @@
       </c>
       <c r="J47" s="148">
         <f>_xlfn.AGGREGATE(4,6,(J29:J30,J34:J35,J39:J40,J44:J45))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K47" s="89"/>
       <c r="N47" t="s">
@@ -7099,7 +4766,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" ht="16.5" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:38" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="D48" s="108"/>
       <c r="E48" s="109"/>
@@ -7110,7 +4777,7 @@
       <c r="J48" s="112"/>
       <c r="K48" s="142"/>
     </row>
-    <row r="49" ht="16.5" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="E49" s="116"/>
       <c r="F49" s="117"/>
@@ -7119,7 +4786,7 @@
       <c r="I49" s="120"/>
       <c r="J49" s="119"/>
     </row>
-    <row r="50" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:44" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B50" s="37" t="s">
         <v>121</v>
       </c>
@@ -7137,7 +4804,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B51" s="37" t="s">
         <v>121</v>
       </c>
@@ -7163,7 +4830,7 @@
       </c>
       <c r="AR51" s="12"/>
     </row>
-    <row r="52" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B52" s="37" t="s">
         <v>121</v>
       </c>
@@ -7174,19 +4841,17 @@
       <c r="F52" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="G52" s="68">
-        <v>0.21279999999999999</v>
-      </c>
+      <c r="G52" s="68"/>
       <c r="H52" s="44" t="str">
         <f t="shared" ref="H52:H58" si="0">IF(G52&lt;0.1,"&lt;10",IF(G52&lt;0.5,"10-50","&gt;50"))</f>
-        <v>10-50</v>
+        <v>&lt;10</v>
       </c>
       <c r="I52" s="45" t="s">
         <v>129</v>
       </c>
       <c r="J52" s="46">
         <f>IF(H52="&lt;10",0,IF(H52="10-50",1.5,IF(H52="&gt;50",3,"")))</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K52" s="89"/>
       <c r="AL52" s="5"/>
@@ -7209,7 +4874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B53" s="37" t="s">
         <v>121</v>
       </c>
@@ -7220,9 +4885,7 @@
       <c r="F53" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="G53" s="68">
-        <v>0</v>
-      </c>
+      <c r="G53" s="68"/>
       <c r="H53" s="44" t="str">
         <f t="shared" si="0"/>
         <v>&lt;10</v>
@@ -7237,7 +4900,7 @@
       <c r="K53" s="89"/>
       <c r="L53" s="80">
         <f t="shared" ref="L53:L59" si="1">J52</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="6" t="s">
         <v>15</v>
@@ -7261,7 +4924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B54" s="37"/>
       <c r="D54" s="83"/>
       <c r="E54" s="47" t="s">
@@ -7317,7 +4980,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="55" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B55" s="37" t="s">
         <v>121</v>
       </c>
@@ -7328,9 +4991,7 @@
       <c r="F55" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="G55" s="68">
-        <v>0</v>
-      </c>
+      <c r="G55" s="68"/>
       <c r="H55" s="44" t="str">
         <f t="shared" si="0"/>
         <v>&lt;10</v>
@@ -7369,7 +5030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B56" s="37"/>
       <c r="D56" s="83"/>
       <c r="E56" s="47" t="s">
@@ -7378,19 +5039,17 @@
       <c r="F56" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="G56" s="68">
-        <v>0.36320000000000002</v>
-      </c>
+      <c r="G56" s="68"/>
       <c r="H56" s="44" t="str">
         <f t="shared" si="0"/>
-        <v>10-50</v>
+        <v>&lt;10</v>
       </c>
       <c r="I56" s="45" t="s">
         <v>129</v>
       </c>
       <c r="J56" s="48">
         <f>IF(H56="&lt;10",0,IF(H56="10-50",1.5,IF(H56="&gt;50",3,"")))</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K56" s="89"/>
       <c r="L56" s="80">
@@ -7398,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="D57" s="83"/>
       <c r="E57" s="47" t="s">
@@ -7407,27 +5066,25 @@
       <c r="F57" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="G57" s="68">
-        <v>0.68240000000000001</v>
-      </c>
+      <c r="G57" s="68"/>
       <c r="H57" s="44" t="str">
         <f t="shared" si="0"/>
-        <v>10-50</v>
+        <v>&lt;10</v>
       </c>
       <c r="I57" s="45" t="s">
         <v>129</v>
       </c>
       <c r="J57" s="48">
         <f>IF(H57="&lt;10",0,IF(H57="10-50",2.5,IF(H57="&gt;50",3.5,"")))</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K57" s="89"/>
       <c r="L57" s="80">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="58" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="D58" s="83"/>
       <c r="E58" s="149" t="s">
@@ -7436,27 +5093,25 @@
       <c r="F58" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="G58" s="151">
-        <v>0.2392</v>
-      </c>
+      <c r="G58" s="151"/>
       <c r="H58" s="44" t="str">
         <f t="shared" si="0"/>
-        <v>10-50</v>
+        <v>&lt;10</v>
       </c>
       <c r="I58" s="153" t="s">
         <v>129</v>
       </c>
       <c r="J58" s="154">
         <f>IF(H58="&lt;10",0,IF(H58="10-50",3,IF(H58="&gt;50",4,"")))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K58" s="89"/>
       <c r="L58" s="80">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="59" ht="18.75" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:44" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="D59" s="83"/>
       <c r="E59" s="147" t="s">
@@ -7472,15 +5127,15 @@
       </c>
       <c r="J59" s="148">
         <f>MAX(J52:J58)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K59" s="89"/>
       <c r="L59" s="80">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B60" s="37" t="s">
         <v>121</v>
       </c>
@@ -7494,7 +5149,7 @@
       <c r="K60" s="89"/>
       <c r="L60" s="80">
         <f t="shared" ref="L60:L67" si="2">J59</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N60" t="s">
         <v>55</v>
@@ -7509,7 +5164,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
         <v>121</v>
       </c>
@@ -7528,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B62" s="37" t="s">
         <v>121</v>
       </c>
@@ -7539,9 +5194,7 @@
       <c r="F62" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="G62" s="68">
-        <v>0.0304</v>
-      </c>
+      <c r="G62" s="68"/>
       <c r="H62" s="44" t="str">
         <f t="shared" ref="H62:H65" si="3">IF(G62&lt;0.1,"&lt;10",IF(G62&lt;0.5,"10-50","&gt;50"))</f>
         <v>&lt;10</v>
@@ -7559,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B63" s="37" t="s">
         <v>121</v>
       </c>
@@ -7570,19 +5223,17 @@
       <c r="F63" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="G63" s="68">
-        <v>0.3352</v>
-      </c>
+      <c r="G63" s="68"/>
       <c r="H63" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>10-50</v>
+        <v>&lt;10</v>
       </c>
       <c r="I63" s="45" t="s">
         <v>129</v>
       </c>
       <c r="J63" s="48">
         <f>IF(H63="&lt;10",0,IF(H63="10-50",1,IF(H63="&gt;50",2,"")))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="89"/>
       <c r="L63" s="80">
@@ -7590,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="D64" s="83"/>
       <c r="E64" s="47" t="s">
@@ -7599,27 +5250,25 @@
       <c r="F64" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="G64" s="68">
-        <v>0.31840000000000002</v>
-      </c>
+      <c r="G64" s="68"/>
       <c r="H64" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>10-50</v>
+        <v>&lt;10</v>
       </c>
       <c r="I64" s="45" t="s">
         <v>129</v>
       </c>
       <c r="J64" s="48">
         <f>IF(H64="&lt;10",0,IF(H64="10-50",1.5,IF(H64="&gt;50",3,"")))</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K64" s="89"/>
       <c r="L64" s="80">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="D65" s="83"/>
       <c r="E65" s="149" t="s">
@@ -7628,27 +5277,25 @@
       <c r="F65" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="G65" s="151">
-        <v>0.36080000000000001</v>
-      </c>
+      <c r="G65" s="151"/>
       <c r="H65" s="152" t="str">
         <f t="shared" si="3"/>
-        <v>10-50</v>
+        <v>&lt;10</v>
       </c>
       <c r="I65" s="153" t="s">
         <v>129</v>
       </c>
       <c r="J65" s="154">
         <f>IF(H65="&lt;10",0,IF(H65="10-50",1.5,IF(H65="&gt;50",3,"")))</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K65" s="89"/>
       <c r="L65" s="80">
         <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="66" ht="18.75" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="D66" s="83"/>
       <c r="E66" s="147" t="s">
@@ -7664,15 +5311,15 @@
       </c>
       <c r="J66" s="148">
         <f>MAX(J62:J65)</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K66" s="89"/>
       <c r="L66" s="80">
         <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="67" ht="16.5" thickBot="true" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="D67" s="108"/>
       <c r="E67" s="109"/>
@@ -7684,10 +5331,10 @@
       <c r="K67" s="96"/>
       <c r="L67" s="80">
         <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="68" ht="16.5" thickBot="true" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="D68" s="115"/>
       <c r="E68" s="116"/>
@@ -7702,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B69" s="1"/>
       <c r="D69" s="114"/>
       <c r="E69" s="97"/>
@@ -7719,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="D70" s="83"/>
       <c r="E70" s="84" t="s">
@@ -7736,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="D71" s="83"/>
       <c r="E71" s="67" t="s">
@@ -7746,18 +5393,19 @@
         <v>134</v>
       </c>
       <c r="G71" s="68">
-        <v>0.21279999999999999</v>
+        <f>G52</f>
+        <v>0</v>
       </c>
       <c r="H71" s="44" t="str">
         <f t="shared" ref="H71:H77" si="5">IF(G71&lt;0.1,"&lt;10",IF(G71&lt;0.5,"10-50","&gt;50"))</f>
-        <v>10-50</v>
+        <v>&lt;10</v>
       </c>
       <c r="I71" s="45" t="s">
         <v>129</v>
       </c>
       <c r="J71" s="46">
         <f>IF(H71="&lt;10",0,IF(H71="10-50",1.5,IF(H71="&gt;50",3,"")))</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K71" s="89"/>
       <c r="L71" s="80">
@@ -7765,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="D72" s="83"/>
       <c r="E72" s="47" t="s">
@@ -7775,6 +5423,7 @@
         <v>131</v>
       </c>
       <c r="G72" s="68">
+        <f t="shared" ref="G72:G75" si="6">G53</f>
         <v>0</v>
       </c>
       <c r="H72" s="44" t="str">
@@ -7794,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="D73" s="83"/>
       <c r="E73" s="47" t="s">
@@ -7804,6 +5453,7 @@
         <v>132</v>
       </c>
       <c r="G73" s="68">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H73" s="44" t="str">
@@ -7823,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="D74" s="83"/>
       <c r="E74" s="47" t="s">
@@ -7833,6 +5483,7 @@
         <v>133</v>
       </c>
       <c r="G74" s="68">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H74" s="44" t="str">
@@ -7852,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="D75" s="83"/>
       <c r="E75" s="47" t="s">
@@ -7862,25 +5513,26 @@
         <v>46</v>
       </c>
       <c r="G75" s="68">
-        <v>0.36320000000000002</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="H75" s="44" t="str">
         <f t="shared" si="5"/>
-        <v>10-50</v>
+        <v>&lt;10</v>
       </c>
       <c r="I75" s="45" t="s">
         <v>129</v>
       </c>
       <c r="J75" s="48">
         <f>IF(H75="&lt;10",0,IF(H75="10-50",1.5,IF(H75="&gt;50",3,"")))</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K75" s="89"/>
       <c r="N75" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="76" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="D76" s="83"/>
       <c r="E76" s="47" t="s">
@@ -7889,23 +5541,21 @@
       <c r="F76" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="G76" s="68">
-        <v>0.8488</v>
-      </c>
+      <c r="G76" s="68"/>
       <c r="H76" s="44" t="str">
         <f t="shared" si="5"/>
-        <v>10-50</v>
+        <v>&lt;10</v>
       </c>
       <c r="I76" s="45" t="s">
         <v>129</v>
       </c>
       <c r="J76" s="48">
         <f>IF(H76="&lt;10",0,IF(H76="10-50",2.5,IF(H76="&gt;50",3.5,"")))</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K76" s="89"/>
     </row>
-    <row r="77" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="D77" s="83"/>
       <c r="E77" s="149" t="s">
@@ -7915,22 +5565,23 @@
         <v>49</v>
       </c>
       <c r="G77" s="151">
-        <v>0.2392</v>
+        <f>G58</f>
+        <v>0</v>
       </c>
       <c r="H77" s="152" t="str">
         <f t="shared" si="5"/>
-        <v>10-50</v>
+        <v>&lt;10</v>
       </c>
       <c r="I77" s="153" t="s">
         <v>129</v>
       </c>
       <c r="J77" s="154">
         <f>IF(H77="&lt;10",0,IF(H77="10-50",3,IF(H77="&gt;50",4,"")))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K77" s="89"/>
     </row>
-    <row r="78" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="D78" s="83"/>
       <c r="E78" s="147" t="s">
@@ -7946,11 +5597,11 @@
       </c>
       <c r="J78" s="148">
         <f>MAX(J71:J77)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K78" s="89"/>
     </row>
-    <row r="79" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="D79" s="83"/>
       <c r="E79" s="91"/>
@@ -7961,7 +5612,7 @@
       <c r="J79" s="93"/>
       <c r="K79" s="89"/>
     </row>
-    <row r="80" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="D80" s="83"/>
       <c r="E80" s="84" t="s">
@@ -7974,7 +5625,7 @@
       <c r="J80" s="87"/>
       <c r="K80" s="89"/>
     </row>
-    <row r="81" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="D81" s="83"/>
       <c r="E81" s="67" t="s">
@@ -7983,23 +5634,21 @@
       <c r="F81" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="G81" s="68">
-        <v>0.043999999999999997</v>
-      </c>
+      <c r="G81" s="68"/>
       <c r="H81" s="44" t="str">
-        <f t="shared" ref="H81:H84" si="6">IF(G81&lt;0.1,"&lt;10",IF(G81&lt;0.5,"10-50","&gt;50"))</f>
-        <v>10-50</v>
+        <f t="shared" ref="H81:H84" si="7">IF(G81&lt;0.1,"&lt;10",IF(G81&lt;0.5,"10-50","&gt;50"))</f>
+        <v>&lt;10</v>
       </c>
       <c r="I81" s="45" t="s">
         <v>129</v>
       </c>
       <c r="J81" s="46">
         <f>IF(H81="&lt;10",0,IF(H81="10-50",1,IF(H81="&gt;50",2,"")))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" s="89"/>
     </row>
-    <row r="82" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="D82" s="83"/>
       <c r="E82" s="47" t="s">
@@ -8008,11 +5657,9 @@
       <c r="F82" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="G82" s="68">
-        <v>0.64880000000000004</v>
-      </c>
+      <c r="G82" s="68"/>
       <c r="H82" s="44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>&lt;10</v>
       </c>
       <c r="I82" s="45" t="s">
@@ -8024,7 +5671,7 @@
       </c>
       <c r="K82" s="89"/>
     </row>
-    <row r="83" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="D83" s="83"/>
       <c r="E83" s="47" t="s">
@@ -8033,23 +5680,21 @@
       <c r="F83" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="G83" s="68">
-        <v>0.216</v>
-      </c>
+      <c r="G83" s="68"/>
       <c r="H83" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>&gt;50</v>
+        <f t="shared" si="7"/>
+        <v>&lt;10</v>
       </c>
       <c r="I83" s="45" t="s">
         <v>129</v>
       </c>
       <c r="J83" s="48">
         <f>IF(H83="&lt;10",0,IF(H83="10-50",1.5,IF(H83="&gt;50",3,"")))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K83" s="89"/>
     </row>
-    <row r="84" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="D84" s="83"/>
       <c r="E84" s="66" t="s">
@@ -8058,23 +5703,21 @@
       <c r="F84" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="G84" s="68">
-        <v>0.14080000000000001</v>
-      </c>
+      <c r="G84" s="68"/>
       <c r="H84" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>10-50</v>
+        <f t="shared" si="7"/>
+        <v>&lt;10</v>
       </c>
       <c r="I84" s="45" t="s">
         <v>129</v>
       </c>
       <c r="J84" s="61">
         <f>IF(H84="&lt;10",0,IF(H84="10-50",1.5,IF(H84="&gt;50",3,"")))</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K84" s="89"/>
     </row>
-    <row r="85" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="D85" s="83"/>
       <c r="E85" s="145" t="s">
@@ -8090,11 +5733,11 @@
       </c>
       <c r="J85" s="146">
         <f>MAX(J81:J84)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K85" s="89"/>
     </row>
-    <row r="86" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="D86" s="95"/>
       <c r="E86" s="103"/>
@@ -8105,7 +5748,7 @@
       <c r="J86" s="106"/>
       <c r="K86" s="96"/>
     </row>
-    <row r="87" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="37"/>
       <c r="D87" s="115"/>
       <c r="E87" s="121"/>
@@ -8116,7 +5759,7 @@
       <c r="J87" s="123"/>
       <c r="K87" s="115"/>
     </row>
-    <row r="88" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="37"/>
       <c r="D88" s="81"/>
       <c r="E88" s="143"/>
@@ -8127,7 +5770,7 @@
       <c r="J88" s="128"/>
       <c r="K88" s="82"/>
     </row>
-    <row r="89" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="37"/>
       <c r="D89" s="83"/>
       <c r="E89" s="144" t="s">
@@ -8140,7 +5783,7 @@
       <c r="J89" s="93"/>
       <c r="K89" s="89"/>
     </row>
-    <row r="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="37"/>
       <c r="D90" s="83"/>
       <c r="E90" s="67" t="s">
@@ -8149,9 +5792,7 @@
       <c r="F90" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="G90" s="53" t="s">
-        <v>439</v>
-      </c>
+      <c r="G90" s="53"/>
       <c r="H90" s="44" t="str">
         <f>IF(G90="4 - 8","4-8",IF(G90="0 - 4","0-4","No vibrating tool used"))</f>
         <v>No vibrating tool used</v>
@@ -8165,7 +5806,7 @@
       </c>
       <c r="K90" s="89"/>
     </row>
-    <row r="91" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="D91" s="83"/>
       <c r="E91" s="47" t="s">
@@ -8174,11 +5815,9 @@
       <c r="F91" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="G91" s="140" t="s">
-        <v>440</v>
-      </c>
+      <c r="G91" s="140"/>
       <c r="H91" s="44" t="str">
-        <f t="shared" ref="H91:H93" si="7">IF(G91="4 - 8","4-8",IF(G91="0 - 4","0-4","No vibrating tool used"))</f>
+        <f t="shared" ref="H91:H93" si="8">IF(G91="4 - 8","4-8",IF(G91="0 - 4","0-4","No vibrating tool used"))</f>
         <v>No vibrating tool used</v>
       </c>
       <c r="I91" s="138" t="s">
@@ -8190,7 +5829,7 @@
       </c>
       <c r="K91" s="89"/>
     </row>
-    <row r="92" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="D92" s="83"/>
       <c r="E92" s="47" t="s">
@@ -8199,11 +5838,9 @@
       <c r="F92" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="G92" s="140" t="s">
-        <v>441</v>
-      </c>
+      <c r="G92" s="140"/>
       <c r="H92" s="44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>No vibrating tool used</v>
       </c>
       <c r="I92" s="138" t="s">
@@ -8215,7 +5852,7 @@
       </c>
       <c r="K92" s="89"/>
     </row>
-    <row r="93" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="D93" s="83"/>
       <c r="E93" s="66" t="s">
@@ -8224,11 +5861,9 @@
       <c r="F93" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="G93" s="58" t="s">
-        <v>442</v>
-      </c>
+      <c r="G93" s="58"/>
       <c r="H93" s="44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>No vibrating tool used</v>
       </c>
       <c r="I93" s="60" t="s">
@@ -8240,7 +5875,7 @@
       </c>
       <c r="K93" s="89"/>
     </row>
-    <row r="94" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B94" s="37"/>
       <c r="D94" s="83"/>
       <c r="E94" s="147" t="s">
@@ -8260,7 +5895,7 @@
       </c>
       <c r="K94" s="89"/>
     </row>
-    <row r="95" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" s="37"/>
       <c r="D95" s="83"/>
       <c r="E95" s="91"/>
@@ -8271,7 +5906,7 @@
       <c r="J95" s="93"/>
       <c r="K95" s="89"/>
     </row>
-    <row r="96" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="37"/>
       <c r="D96" s="83"/>
       <c r="E96" s="144" t="s">
@@ -8284,7 +5919,7 @@
       <c r="J96" s="93"/>
       <c r="K96" s="89"/>
     </row>
-    <row r="97" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="37"/>
       <c r="D97" s="83"/>
       <c r="E97" s="67" t="s">
@@ -8293,18 +5928,16 @@
       <c r="F97" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="G97" s="159" t="s">
-        <v>355</v>
-      </c>
+      <c r="G97" s="159"/>
       <c r="H97" s="160"/>
       <c r="I97" s="45"/>
       <c r="J97" s="46">
         <f>IF(G97="yes",0.5,0)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K97" s="89"/>
     </row>
-    <row r="98" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" s="37"/>
       <c r="D98" s="83"/>
       <c r="E98" s="47" t="s">
@@ -8313,18 +5946,16 @@
       <c r="F98" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="G98" s="161" t="s">
-        <v>356</v>
-      </c>
+      <c r="G98" s="161"/>
       <c r="H98" s="162"/>
       <c r="I98" s="138"/>
       <c r="J98" s="46">
-        <f t="shared" ref="J98:J101" si="8">IF(G98="yes",0.5,0)</f>
-        <v>0.5</v>
+        <f t="shared" ref="J98:J101" si="9">IF(G98="yes",0.5,0)</f>
+        <v>0</v>
       </c>
       <c r="K98" s="89"/>
     </row>
-    <row r="99" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="D99" s="83"/>
       <c r="E99" s="47" t="s">
@@ -8333,18 +5964,16 @@
       <c r="F99" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="G99" s="161" t="s">
-        <v>357</v>
-      </c>
+      <c r="G99" s="161"/>
       <c r="H99" s="162"/>
       <c r="I99" s="138"/>
       <c r="J99" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K99" s="89"/>
     </row>
-    <row r="100" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="D100" s="83"/>
       <c r="E100" s="47" t="s">
@@ -8353,18 +5982,16 @@
       <c r="F100" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G100" s="169" t="s">
-        <v>358</v>
-      </c>
+      <c r="G100" s="169"/>
       <c r="H100" s="170"/>
       <c r="I100" s="138"/>
       <c r="J100" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K100" s="89"/>
     </row>
-    <row r="101" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="D101" s="83"/>
       <c r="E101" s="66" t="s">
@@ -8373,18 +6000,16 @@
       <c r="F101" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="G101" s="171" t="s">
-        <v>359</v>
-      </c>
+      <c r="G101" s="171"/>
       <c r="H101" s="172"/>
       <c r="I101" s="60"/>
       <c r="J101" s="46">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="K101" s="89"/>
     </row>
-    <row r="102" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="D102" s="83"/>
       <c r="E102" s="147" t="s">
@@ -8400,11 +6025,11 @@
       </c>
       <c r="J102" s="148">
         <f>SUM(J97:J101)</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K102" s="89"/>
     </row>
-    <row r="103" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D103" s="95"/>
       <c r="E103" s="103"/>
       <c r="F103" s="104"/>
@@ -8414,22 +6039,22 @@
       <c r="J103" s="106"/>
       <c r="K103" s="96"/>
     </row>
-    <row r="104" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E104" s="23"/>
     </row>
-    <row r="105" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E105" s="23"/>
     </row>
-    <row r="106" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E106" s="23"/>
     </row>
-    <row r="107" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E107" s="23"/>
     </row>
-    <row r="108" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E108" s="23"/>
     </row>
-    <row r="109" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E109" s="42" t="s">
         <v>139</v>
       </c>
@@ -8437,262 +6062,262 @@
         <v>141</v>
       </c>
     </row>
-    <row r="110" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E110" s="23"/>
       <c r="F110" s="78" t="s">
         <v>140</v>
       </c>
       <c r="G110" s="40"/>
     </row>
-    <row r="111" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E111" s="23"/>
     </row>
-    <row r="112" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E112" s="23"/>
       <c r="F112" s="71" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="113" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E113" s="23"/>
       <c r="F113" s="78" t="s">
         <v>143</v>
       </c>
       <c r="G113" s="40"/>
     </row>
-    <row r="114" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E114" s="23"/>
     </row>
-    <row r="115" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E115" s="23"/>
       <c r="F115" s="71" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="116" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E116" s="23"/>
       <c r="F116" s="79" t="s">
         <v>145</v>
       </c>
       <c r="G116" s="41"/>
     </row>
-    <row r="117" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E117" s="23"/>
     </row>
-    <row r="118" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E118" s="23"/>
     </row>
-    <row r="119" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E119" s="23"/>
     </row>
-    <row r="120" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E120" s="1"/>
     </row>
-    <row r="121" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E121" s="1"/>
     </row>
-    <row r="122" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E122" s="1"/>
     </row>
-    <row r="123" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E123" s="1"/>
     </row>
-    <row r="124" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E124" s="1"/>
     </row>
-    <row r="125" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E125" s="1"/>
     </row>
-    <row r="126" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E126" s="1"/>
     </row>
-    <row r="127" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E127" s="1"/>
     </row>
-    <row r="128" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E128" s="1"/>
     </row>
-    <row r="129" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" s="1"/>
     </row>
-    <row r="130" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130" s="1"/>
     </row>
-    <row r="131" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" s="1"/>
     </row>
-    <row r="132" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132" s="1"/>
     </row>
-    <row r="133" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133" s="1"/>
     </row>
-    <row r="134" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" s="1"/>
     </row>
-    <row r="135" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E135" s="1"/>
     </row>
-    <row r="136" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E136" s="1"/>
     </row>
-    <row r="137" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E137" s="1"/>
     </row>
-    <row r="138" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E138" s="1"/>
     </row>
-    <row r="139" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" s="1"/>
     </row>
-    <row r="140" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E140" s="1"/>
     </row>
-    <row r="141" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E141" s="1"/>
     </row>
-    <row r="142" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E142" s="1"/>
     </row>
-    <row r="143" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E143" s="1"/>
     </row>
-    <row r="144" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E144" s="1"/>
     </row>
-    <row r="145" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" s="1"/>
     </row>
-    <row r="146" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" s="1"/>
     </row>
-    <row r="147" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" s="1"/>
     </row>
-    <row r="148" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" s="1"/>
     </row>
-    <row r="149" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" s="1"/>
     </row>
-    <row r="150" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" s="1"/>
     </row>
-    <row r="151" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" s="1"/>
     </row>
-    <row r="152" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" s="1"/>
     </row>
-    <row r="153" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" s="1"/>
     </row>
-    <row r="154" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" s="1"/>
     </row>
-    <row r="155" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" s="1"/>
     </row>
-    <row r="156" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" s="1"/>
     </row>
-    <row r="157" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" s="1"/>
     </row>
-    <row r="158" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" s="1"/>
     </row>
-    <row r="159" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" s="1"/>
     </row>
-    <row r="160" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" s="1"/>
     </row>
-    <row r="161" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" s="1"/>
     </row>
-    <row r="162" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" s="1"/>
     </row>
-    <row r="163" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" s="1"/>
     </row>
-    <row r="164" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E164" s="1"/>
     </row>
-    <row r="165" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E165" s="1"/>
     </row>
-    <row r="166" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E166" s="1"/>
     </row>
-    <row r="167" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E167" s="1"/>
     </row>
-    <row r="168" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E168" s="1"/>
     </row>
-    <row r="169" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E169" s="1"/>
     </row>
-    <row r="170" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E170" s="1"/>
     </row>
-    <row r="171" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E171" s="1"/>
     </row>
-    <row r="172" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E172" s="1"/>
     </row>
-    <row r="173" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E173" s="1"/>
     </row>
-    <row r="174" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E174" s="1"/>
     </row>
-    <row r="175" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E175" s="1"/>
     </row>
-    <row r="176" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E176" s="1"/>
     </row>
-    <row r="177" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" s="1"/>
     </row>
-    <row r="178" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" s="1"/>
     </row>
-    <row r="179" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" s="1"/>
     </row>
-    <row r="180" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E180" s="1"/>
     </row>
-    <row r="181" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E181" s="1"/>
     </row>
-    <row r="182" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E182" s="1"/>
     </row>
-    <row r="183" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E183" s="1"/>
     </row>
-    <row r="184" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E184" s="1"/>
     </row>
-    <row r="185" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E185" s="1"/>
     </row>
-    <row r="186" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E186" s="1"/>
     </row>
-    <row r="187" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E187" s="1"/>
     </row>
-    <row r="188" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E188" s="1"/>
     </row>
-    <row r="1048576" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M1048576" t="s">
         <v>150</v>
       </c>
@@ -8737,23 +6362,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="true" showInputMessage="true" showErrorMessage="true" sqref="H24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$AO$23:$AO$25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="true" showInputMessage="true" showErrorMessage="true" sqref="H81:H84 H62:H65 H71:H77 H52:H58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H81:H84 H62:H65 H71:H77 H52:H58" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$AS$23:$AS$26</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="true" showInputMessage="true" showErrorMessage="true" sqref="H90:H93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H90:H93" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$AT$23:$AT$26</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="true" showInputMessage="true" showErrorMessage="true" sqref="B18:B20 B94:B98 B87:B90 B60:B63 B50:B56 B28:B30 B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B20 B94:B98 B87:B90 B60:B63 B50:B56 B28:B30 B24" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$AJ$23:$AJ$26</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F110" r:id="rId1"/>
-    <hyperlink ref="F113" r:id="rId2"/>
-    <hyperlink ref="F116" r:id="rId3"/>
+    <hyperlink ref="F110" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F113" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F116" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/HARM_DH_4_V2.xlsx
+++ b/HARM_DH_4_V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drubi\Desktop\Trabajo_Suecia\HARM\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E30E786-D38B-4B92-9791-B8A968E20A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D607A24D-C4B5-4892-A683-CC0F8CD14393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,7 +960,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="160">
   <si>
     <t>Task duration score</t>
   </si>
@@ -1586,6 +1586,18 @@
   </si>
   <si>
     <t>Total HARM risk score (Right Arm)</t>
+  </si>
+  <si>
+    <t>Peak Force</t>
+  </si>
+  <si>
+    <t>10 - 60</t>
+  </si>
+  <si>
+    <t>1 - 10</t>
+  </si>
+  <si>
+    <t>0 - 1</t>
   </si>
 </sst>
 </file>
@@ -3591,14 +3603,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D5A744-93A6-4AE8-83A2-675B1B554012}">
   <dimension ref="B1:AT1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="N73" sqref="N73"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="0.140625" customWidth="1"/>
-    <col min="6" max="6" width="185.42578125" style="71" customWidth="1"/>
+    <col min="6" max="6" width="135.42578125" style="71" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="3" customWidth="1"/>
@@ -3762,7 +3774,7 @@
       </c>
       <c r="P10" s="35">
         <f>J21*(J47+J78+J85+J94+J102)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="28"/>
       <c r="R10" s="26"/>
@@ -3775,7 +3787,7 @@
       </c>
       <c r="X10" s="35">
         <f>J21*(J47+J59+J66+J94+J102)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y10" s="28"/>
       <c r="Z10" s="26"/>
@@ -4347,10 +4359,11 @@
       <c r="F28" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="173"/>
-      <c r="H28" s="141" t="str">
-        <f>IF(G28="1 - 10","1-10",IF(G28="10 - 60","10-60",IF(G28="Peak Force","Peak Force","0")))</f>
-        <v>0</v>
+      <c r="G28" s="173" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="141" t="s">
+        <v>159</v>
       </c>
       <c r="I28" s="138" t="s">
         <v>14</v>
@@ -4459,10 +4472,12 @@
       <c r="F33" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="173"/>
+      <c r="G33" s="173" t="s">
+        <v>158</v>
+      </c>
       <c r="H33" s="141" t="str">
         <f>IF(G33="1 - 10","1-10",IF(G33="10 - 60","10-60",IF(G33="Peak Force","Peak Force","0")))</f>
-        <v>0</v>
+        <v>1-10</v>
       </c>
       <c r="I33" s="138" t="s">
         <v>14</v>
@@ -4490,9 +4505,9 @@
       <c r="I34" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="J34" s="48" t="e">
+      <c r="J34" s="48">
         <f>INDEX($AM$53:$AO$55,MATCH(H33,$AL$53:$AL$55,0),MATCH(H34,$AM$52:$AO$52,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="K34" s="89"/>
       <c r="AL34">
@@ -4516,9 +4531,9 @@
       <c r="I35" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="J35" s="48" t="e">
+      <c r="J35" s="48">
         <f>INDEX($AP$53:$AR$55,MATCH(H33,$AL$53:$AL$55,0),MATCH(H35,$AP$52:$AR$52,0))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="K35" s="89"/>
       <c r="AL35">
@@ -4564,10 +4579,12 @@
       <c r="F38" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="173"/>
+      <c r="G38" s="173" t="s">
+        <v>157</v>
+      </c>
       <c r="H38" s="141" t="str">
         <f>IF(G38="1 - 10","1-10",IF(G38="10 - 60","10-60",IF(G38="Peak Force","Peak Force","0")))</f>
-        <v>0</v>
+        <v>10-60</v>
       </c>
       <c r="I38" s="138" t="s">
         <v>14</v>
@@ -4595,9 +4612,9 @@
       <c r="I39" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="J39" s="48" t="e">
+      <c r="J39" s="48">
         <f>INDEX($AM$53:$AO$55,MATCH(H38,$AL$53:$AL$55,0),MATCH(H39,$AM$52:$AO$52,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="K39" s="89"/>
       <c r="AL39">
@@ -4621,9 +4638,9 @@
       <c r="I40" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="48" t="e">
+      <c r="J40" s="48">
         <f>INDEX($AP$53:$AR$55,MATCH(H38,$AL$53:$AL$55,0),MATCH(H40,$AP$52:$AR$52,0))</f>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="K40" s="89"/>
       <c r="AL40">
@@ -4663,10 +4680,12 @@
       <c r="F43" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="173"/>
+      <c r="G43" s="173" t="s">
+        <v>156</v>
+      </c>
       <c r="H43" s="141" t="str">
         <f>IF(G43="1 - 10","1-10",IF(G43="10 - 60","10-60",IF(G43="Peak Force","Peak Force","0")))</f>
-        <v>0</v>
+        <v>Peak Force</v>
       </c>
       <c r="I43" s="138" t="s">
         <v>14</v>
@@ -4691,9 +4710,9 @@
       <c r="I44" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="J44" s="48" t="e">
+      <c r="J44" s="48" t="str">
         <f>INDEX($AM$53:$AO$55,MATCH(H43,$AL$53:$AL$55,0),MATCH(H44,$AM$52:$AO$52,0))</f>
-        <v>#N/A</v>
+        <v>n/a</v>
       </c>
       <c r="K44" s="89"/>
     </row>
@@ -4714,9 +4733,9 @@
       <c r="I45" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="J45" s="48" t="e">
+      <c r="J45" s="48">
         <f>INDEX($AP$53:$AR$55,MATCH(H43,$AL$53:$AL$55,0),MATCH(H45,$AP$52:$AR$52,0))</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="K45" s="89"/>
     </row>
@@ -4747,7 +4766,7 @@
       </c>
       <c r="J47" s="148">
         <f>_xlfn.AGGREGATE(4,6,(J29:J30,J34:J35,J39:J40,J44:J45))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K47" s="89"/>
       <c r="N47" t="s">
@@ -4933,9 +4952,7 @@
       <c r="F54" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="G54" s="68">
-        <v>0</v>
-      </c>
+      <c r="G54" s="68"/>
       <c r="H54" s="44" t="str">
         <f t="shared" si="0"/>
         <v>&lt;10</v>
@@ -5392,10 +5409,7 @@
       <c r="F71" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="G71" s="68">
-        <f>G52</f>
-        <v>0</v>
-      </c>
+      <c r="G71" s="68"/>
       <c r="H71" s="44" t="str">
         <f t="shared" ref="H71:H77" si="5">IF(G71&lt;0.1,"&lt;10",IF(G71&lt;0.5,"10-50","&gt;50"))</f>
         <v>&lt;10</v>
@@ -5422,10 +5436,7 @@
       <c r="F72" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="G72" s="68">
-        <f t="shared" ref="G72:G75" si="6">G53</f>
-        <v>0</v>
-      </c>
+      <c r="G72" s="68"/>
       <c r="H72" s="44" t="str">
         <f t="shared" si="5"/>
         <v>&lt;10</v>
@@ -5452,10 +5463,7 @@
       <c r="F73" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="G73" s="68">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="G73" s="68"/>
       <c r="H73" s="44" t="str">
         <f t="shared" si="5"/>
         <v>&lt;10</v>
@@ -5482,10 +5490,7 @@
       <c r="F74" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="G74" s="68">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="G74" s="68"/>
       <c r="H74" s="44" t="str">
         <f t="shared" si="5"/>
         <v>&lt;10</v>
@@ -5512,10 +5517,7 @@
       <c r="F75" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="G75" s="68">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="G75" s="68"/>
       <c r="H75" s="44" t="str">
         <f t="shared" si="5"/>
         <v>&lt;10</v>
@@ -5564,10 +5566,7 @@
       <c r="F77" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="G77" s="151">
-        <f>G58</f>
-        <v>0</v>
-      </c>
+      <c r="G77" s="151"/>
       <c r="H77" s="152" t="str">
         <f t="shared" si="5"/>
         <v>&lt;10</v>
@@ -5636,7 +5635,7 @@
       </c>
       <c r="G81" s="68"/>
       <c r="H81" s="44" t="str">
-        <f t="shared" ref="H81:H84" si="7">IF(G81&lt;0.1,"&lt;10",IF(G81&lt;0.5,"10-50","&gt;50"))</f>
+        <f t="shared" ref="H81:H84" si="6">IF(G81&lt;0.1,"&lt;10",IF(G81&lt;0.5,"10-50","&gt;50"))</f>
         <v>&lt;10</v>
       </c>
       <c r="I81" s="45" t="s">
@@ -5659,7 +5658,7 @@
       </c>
       <c r="G82" s="68"/>
       <c r="H82" s="44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>&lt;10</v>
       </c>
       <c r="I82" s="45" t="s">
@@ -5682,7 +5681,7 @@
       </c>
       <c r="G83" s="68"/>
       <c r="H83" s="44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>&lt;10</v>
       </c>
       <c r="I83" s="45" t="s">
@@ -5705,7 +5704,7 @@
       </c>
       <c r="G84" s="68"/>
       <c r="H84" s="44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>&lt;10</v>
       </c>
       <c r="I84" s="45" t="s">
@@ -5817,7 +5816,7 @@
       </c>
       <c r="G91" s="140"/>
       <c r="H91" s="44" t="str">
-        <f t="shared" ref="H91:H93" si="8">IF(G91="4 - 8","4-8",IF(G91="0 - 4","0-4","No vibrating tool used"))</f>
+        <f t="shared" ref="H91:H93" si="7">IF(G91="4 - 8","4-8",IF(G91="0 - 4","0-4","No vibrating tool used"))</f>
         <v>No vibrating tool used</v>
       </c>
       <c r="I91" s="138" t="s">
@@ -5840,7 +5839,7 @@
       </c>
       <c r="G92" s="140"/>
       <c r="H92" s="44" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>No vibrating tool used</v>
       </c>
       <c r="I92" s="138" t="s">
@@ -5863,7 +5862,7 @@
       </c>
       <c r="G93" s="58"/>
       <c r="H93" s="44" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>No vibrating tool used</v>
       </c>
       <c r="I93" s="60" t="s">
@@ -5950,7 +5949,7 @@
       <c r="H98" s="162"/>
       <c r="I98" s="138"/>
       <c r="J98" s="46">
-        <f t="shared" ref="J98:J101" si="9">IF(G98="yes",0.5,0)</f>
+        <f t="shared" ref="J98:J101" si="8">IF(G98="yes",0.5,0)</f>
         <v>0</v>
       </c>
       <c r="K98" s="89"/>
@@ -5968,7 +5967,7 @@
       <c r="H99" s="162"/>
       <c r="I99" s="138"/>
       <c r="J99" s="46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K99" s="89"/>
@@ -5986,7 +5985,7 @@
       <c r="H100" s="170"/>
       <c r="I100" s="138"/>
       <c r="J100" s="46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K100" s="89"/>
@@ -6004,7 +6003,7 @@
       <c r="H101" s="172"/>
       <c r="I101" s="60"/>
       <c r="J101" s="46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K101" s="89"/>

--- a/HARM_DH_4_V2.xlsx
+++ b/HARM_DH_4_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drubi\Desktop\Trabajo_Suecia\HARM\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D607A24D-C4B5-4892-A683-CC0F8CD14393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC8B741-C7A3-4B3C-A11F-BC290677C88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,7 +960,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="161">
   <si>
     <t>Task duration score</t>
   </si>
@@ -1594,10 +1594,13 @@
     <t>10 - 60</t>
   </si>
   <si>
-    <t>1 - 10</t>
-  </si>
-  <si>
     <t>0 - 1</t>
+  </si>
+  <si>
+    <t>0 -1</t>
+  </si>
+  <si>
+    <t>1 -10</t>
   </si>
 </sst>
 </file>
@@ -3178,7 +3181,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>747572</xdr:colOff>
+      <xdr:colOff>747573</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>100421</xdr:rowOff>
     </xdr:to>
@@ -3603,15 +3606,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D5A744-93A6-4AE8-83A2-675B1B554012}">
   <dimension ref="B1:AT1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="0.140625" customWidth="1"/>
     <col min="6" max="6" width="135.42578125" style="71" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -3774,7 +3777,7 @@
       </c>
       <c r="P10" s="35">
         <f>J21*(J47+J78+J85+J94+J102)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="28"/>
       <c r="R10" s="26"/>
@@ -3787,7 +3790,7 @@
       </c>
       <c r="X10" s="35">
         <f>J21*(J47+J59+J66+J94+J102)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="28"/>
       <c r="Z10" s="26"/>
@@ -4212,9 +4215,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="50"/>
-      <c r="H24" s="51" t="s">
-        <v>10</v>
-      </c>
+      <c r="H24" s="51"/>
       <c r="I24" s="94"/>
       <c r="J24" s="93"/>
       <c r="K24" s="89"/>
@@ -4363,7 +4364,7 @@
         <v>159</v>
       </c>
       <c r="H28" s="141" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I28" s="138" t="s">
         <v>14</v>
@@ -4387,7 +4388,9 @@
       <c r="F29" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="174"/>
+      <c r="G29" s="174">
+        <v>0</v>
+      </c>
       <c r="H29" s="141" t="str">
         <f>IF(G29&lt;4,"&lt;4",IF(G29&lt;30,"4-30","&gt;30"))</f>
         <v>&lt;4</v>
@@ -4416,7 +4419,9 @@
       <c r="F30" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="174"/>
+      <c r="G30" s="174">
+        <v>0</v>
+      </c>
       <c r="H30" s="141" t="str">
         <f>IF(G30&lt;4,"&lt;4",IF(G30&lt;30,"4-30","&gt;30"))</f>
         <v>&lt;4</v>
@@ -4473,17 +4478,21 @@
         <v>13</v>
       </c>
       <c r="G33" s="173" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H33" s="141" t="str">
-        <f>IF(G33="1 - 10","1-10",IF(G33="10 - 60","10-60",IF(G33="Peak Force","Peak Force","0")))</f>
-        <v>1-10</v>
+        <f>IF(L33="1 - 10","1-10",IF(L33="10 - 60","10-60",IF(L33="Peak Force","Peak Force","0")))</f>
+        <v>0</v>
       </c>
       <c r="I33" s="138" t="s">
         <v>14</v>
       </c>
       <c r="J33" s="56"/>
       <c r="K33" s="89"/>
+      <c r="L33">
+        <f>IF(G35&gt;0,"1 - 10",0)</f>
+        <v>0</v>
+      </c>
       <c r="AL33">
         <v>6</v>
       </c>
@@ -4497,7 +4506,9 @@
       <c r="F34" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="174"/>
+      <c r="G34" s="174">
+        <v>0</v>
+      </c>
       <c r="H34" s="141" t="str">
         <f>IF(G34&lt;4,"&lt;4",IF(G34&lt;30,"4-30","&gt;30"))</f>
         <v>&lt;4</v>
@@ -4505,9 +4516,9 @@
       <c r="I34" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="J34" s="48">
+      <c r="J34" s="48" t="e">
         <f>INDEX($AM$53:$AO$55,MATCH(H33,$AL$53:$AL$55,0),MATCH(H34,$AM$52:$AO$52,0))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="K34" s="89"/>
       <c r="AL34">
@@ -4523,7 +4534,9 @@
       <c r="F35" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="174"/>
+      <c r="G35" s="174">
+        <v>0</v>
+      </c>
       <c r="H35" s="141" t="str">
         <f>IF(G35&lt;4,"&lt;4",IF(G35&lt;30,"4-30","&gt;30"))</f>
         <v>&lt;4</v>
@@ -4531,9 +4544,9 @@
       <c r="I35" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="J35" s="48">
+      <c r="J35" s="48" t="e">
         <f>INDEX($AP$53:$AR$55,MATCH(H33,$AL$53:$AL$55,0),MATCH(H35,$AP$52:$AR$52,0))</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="K35" s="89"/>
       <c r="AL35">
@@ -4583,14 +4596,18 @@
         <v>157</v>
       </c>
       <c r="H38" s="141" t="str">
-        <f>IF(G38="1 - 10","1-10",IF(G38="10 - 60","10-60",IF(G38="Peak Force","Peak Force","0")))</f>
-        <v>10-60</v>
+        <f>IF(L38="1 - 10","1-10",IF(L38="10 - 60","10-60",IF(L38="Peak Force","Peak Force","0")))</f>
+        <v>0</v>
       </c>
       <c r="I38" s="138" t="s">
         <v>14</v>
       </c>
       <c r="J38" s="56"/>
       <c r="K38" s="89"/>
+      <c r="L38">
+        <f>IF(G40&gt;0,"10 - 60",0)</f>
+        <v>0</v>
+      </c>
       <c r="AL38">
         <v>9</v>
       </c>
@@ -4604,7 +4621,9 @@
       <c r="F39" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="174"/>
+      <c r="G39" s="174">
+        <v>0</v>
+      </c>
       <c r="H39" s="141" t="str">
         <f>IF(G39&lt;4,"&lt;4",IF(G39&lt;30,"4-30","&gt;30"))</f>
         <v>&lt;4</v>
@@ -4612,9 +4631,9 @@
       <c r="I39" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="J39" s="48">
+      <c r="J39" s="48" t="e">
         <f>INDEX($AM$53:$AO$55,MATCH(H38,$AL$53:$AL$55,0),MATCH(H39,$AM$52:$AO$52,0))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="K39" s="89"/>
       <c r="AL39">
@@ -4630,7 +4649,9 @@
       <c r="F40" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="174"/>
+      <c r="G40" s="174">
+        <v>0</v>
+      </c>
       <c r="H40" s="141" t="str">
         <f>IF(G40&lt;4,"&lt;4",IF(G40&lt;30,"4-30","&gt;30"))</f>
         <v>&lt;4</v>
@@ -4638,9 +4659,9 @@
       <c r="I40" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="48">
+      <c r="J40" s="48" t="e">
         <f>INDEX($AP$53:$AR$55,MATCH(H38,$AL$53:$AL$55,0),MATCH(H40,$AP$52:$AR$52,0))</f>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="K40" s="89"/>
       <c r="AL40">
@@ -4684,14 +4705,18 @@
         <v>156</v>
       </c>
       <c r="H43" s="141" t="str">
-        <f>IF(G43="1 - 10","1-10",IF(G43="10 - 60","10-60",IF(G43="Peak Force","Peak Force","0")))</f>
-        <v>Peak Force</v>
+        <f>IF(L43="1 - 10","1-10",IF(L43="10 - 60","10-60",IF(L43="Peak Force","Peak Force","0")))</f>
+        <v>0</v>
       </c>
       <c r="I43" s="138" t="s">
         <v>14</v>
       </c>
       <c r="J43" s="56"/>
       <c r="K43" s="89"/>
+      <c r="L43">
+        <f>IF(G45&gt;0,"Peak Force",0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
@@ -4702,7 +4727,9 @@
       <c r="F44" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="174"/>
+      <c r="G44" s="174">
+        <v>0</v>
+      </c>
       <c r="H44" s="141" t="str">
         <f>IF(G44&lt;4,"&lt;4",IF(G44&lt;30,"4-30","&gt;30"))</f>
         <v>&lt;4</v>
@@ -4710,9 +4737,9 @@
       <c r="I44" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="J44" s="48" t="str">
+      <c r="J44" s="48" t="e">
         <f>INDEX($AM$53:$AO$55,MATCH(H43,$AL$53:$AL$55,0),MATCH(H44,$AM$52:$AO$52,0))</f>
-        <v>n/a</v>
+        <v>#N/A</v>
       </c>
       <c r="K44" s="89"/>
     </row>
@@ -4725,7 +4752,9 @@
       <c r="F45" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="174"/>
+      <c r="G45" s="174">
+        <v>0</v>
+      </c>
       <c r="H45" s="141" t="str">
         <f>IF(G45&lt;4,"&lt;4",IF(G45&lt;30,"4-30","&gt;30"))</f>
         <v>&lt;4</v>
@@ -4733,9 +4762,9 @@
       <c r="I45" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="J45" s="48">
+      <c r="J45" s="48" t="e">
         <f>INDEX($AP$53:$AR$55,MATCH(H43,$AL$53:$AL$55,0),MATCH(H45,$AP$52:$AR$52,0))</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="K45" s="89"/>
     </row>
@@ -4766,7 +4795,7 @@
       </c>
       <c r="J47" s="148">
         <f>_xlfn.AGGREGATE(4,6,(J29:J30,J34:J35,J39:J40,J44:J45))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K47" s="89"/>
       <c r="N47" t="s">
@@ -5409,7 +5438,10 @@
       <c r="F71" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="G71" s="68"/>
+      <c r="G71" s="68">
+        <f>G52</f>
+        <v>0</v>
+      </c>
       <c r="H71" s="44" t="str">
         <f t="shared" ref="H71:H77" si="5">IF(G71&lt;0.1,"&lt;10",IF(G71&lt;0.5,"10-50","&gt;50"))</f>
         <v>&lt;10</v>
@@ -5436,7 +5468,10 @@
       <c r="F72" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="G72" s="68"/>
+      <c r="G72" s="68">
+        <f>G53</f>
+        <v>0</v>
+      </c>
       <c r="H72" s="44" t="str">
         <f t="shared" si="5"/>
         <v>&lt;10</v>
@@ -5463,7 +5498,10 @@
       <c r="F73" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="G73" s="68"/>
+      <c r="G73" s="68">
+        <f>G54</f>
+        <v>0</v>
+      </c>
       <c r="H73" s="44" t="str">
         <f t="shared" si="5"/>
         <v>&lt;10</v>
@@ -5490,7 +5528,10 @@
       <c r="F74" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="G74" s="68"/>
+      <c r="G74" s="68">
+        <f>G55</f>
+        <v>0</v>
+      </c>
       <c r="H74" s="44" t="str">
         <f t="shared" si="5"/>
         <v>&lt;10</v>
@@ -5517,7 +5558,10 @@
       <c r="F75" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="G75" s="68"/>
+      <c r="G75" s="68">
+        <f>G56</f>
+        <v>0</v>
+      </c>
       <c r="H75" s="44" t="str">
         <f t="shared" si="5"/>
         <v>&lt;10</v>
@@ -5566,7 +5610,10 @@
       <c r="F77" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="G77" s="151"/>
+      <c r="G77" s="151">
+        <f>G58</f>
+        <v>0</v>
+      </c>
       <c r="H77" s="152" t="str">
         <f t="shared" si="5"/>
         <v>&lt;10</v>
